--- a/medicine/Mort/Kommounarka/Kommounarka.xlsx
+++ b/medicine/Mort/Kommounarka/Kommounarka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Kommounarka » (en russe : Расстрельный полигон «Коммунарка») est un site d'exécutions de masse du NKVD de 1937 à 1941 situé dans le district administratif de Novomoskovski au sud-ouest du centre de Moscou. C'est désormais un cimetière orthodoxe.
 </t>
@@ -511,7 +523,9 @@
           <t>Victimes et sépultures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le Service fédéral de sécurité de la fédération de Russie, environ 10 000 personnes y ont été tuées et enterrées comme Mykhaïlo Bondarenko, qui fut chef du gouvernement ukrainien.
  Portail de la criminologie   Portail de Moscou   Portail sur la mort   Portail de l’URSS   Portail du communisme   Portail de la Russie                </t>
